--- a/backend/data/procedimientos_y_preguntas.xlsx
+++ b/backend/data/procedimientos_y_preguntas.xlsx
@@ -550,7 +550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1230,6 +1230,486 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PEP-PRO-1141 V.2</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>¿Cuál es el primer paso del procedimiento de prueba?</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Verificar condiciones iniciales</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Iniciar operación directamente</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Contactar supervisor</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Revisar documentación</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>PEP-PRO-1141 V.2</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Un operador debe cambiar las válvulas compresoras. ¿Qué debe verificar antes de iniciar?</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ausencia de presión en el compresor</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Estado de los empaques</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Torque de las tuercas</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Nivel de aceite en el cárter</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PEP-PRO-1141 V.2</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>¿Qué herramienta se usa para retirar válvulas compresoras?</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Extractor de válvulas</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Llave de torque</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Multímetro</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Calibrador de bujías</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>PEP-PRO-1141 V.2</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>¿Qué error común se debe evitar al instalar una nueva válvula compresora?</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>No instalar el sello en el fondo del alojamiento</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>No limpiar el alojamiento de la válvula</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>No verificar el torque de las tuercas</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>No usar la herramienta extractora</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>PEP-PRO-1141 V.2</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>¿Cuál es el primer paso del procedimiento de prueba?</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Verificar condiciones iniciales</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Iniciar operación directamente</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Contactar supervisor</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Revisar documentación</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>PEP-PRO-1141 V.2</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>¿Cuál es el primer paso del procedimiento de prueba?</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Verificar condiciones iniciales</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Iniciar operación directamente</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Contactar supervisor</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Revisar documentación</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>PEP-PRO-1141 V.2</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Durante el mantenimiento, ¿qué debe hacer un operador si duda sobre la presión en los puntos de venteo?</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Comunicar a su supervisor y no iniciar la actividad.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Proceder con precaución y continuar el trabajo.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Cerrar los puntos de venteo y seguir.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Ignorar la duda y seguir el procedimiento.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PEP-PRO-1141 V.2</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>¿Qué herramienta se utiliza para girar el motor?</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Barra para girar el motor.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Llave de torque.</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Multímetro.</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Extractor de válvulas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>PEP-PRO-1141 V.2</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>¿Qué error común se debe evitar al calibrar las válvulas motrices?</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>No seguir la secuencia de encendido.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Calibrar todas las válvulas a la misma medida.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>No retirar la tapa del balancín.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Dejar las rotulas de los balancines sin verificar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>PEP-PRO-1141 V.2</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>¿Cuál es el primer paso del procedimiento de prueba?</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Verificar condiciones iniciales</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Iniciar operación directamente</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Contactar supervisor</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Revisar documentación</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>PEP-PRO-1141 V.2</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>¿Cuál es el primer paso del procedimiento de prueba?</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Verificar condiciones iniciales</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Iniciar operación directamente</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Contactar supervisor</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Revisar documentación</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>PEP-PRO-1141 V.2</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Durante el mantenimiento, el operador detecta presión en el compresor. ¿Qué debe hacer antes de continuar?</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Comunicar al supervisor y no iniciar la actividad.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Proceder con el cambio de válvulas.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Ajustar las tuercas de la tapa.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Instalar la herramienta extractora.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>PEP-PRO-1141 V.2</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>¿Qué herramienta se utiliza para retirar la válvula compresora?</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Extractor de válvulas compresoras.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Llave de torque.</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Multímetro.</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Calibrador de bujías.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>PEP-PRO-1141 V.2</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Un error común es no verificar la presión antes de retirar las válvulas. ¿Qué puede ocurrir?</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Presión atrapada puede causar accidentes.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>El compresor puede sobrecalentarse.</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Las válvulas pueden dañarse.</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>El aceite puede contaminarse.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>PEP-PRO-1141 V.2</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>¿Cuál es el primer paso del procedimiento de prueba?</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Verificar condiciones iniciales</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Iniciar operación directamente</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Contactar supervisor</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Revisar documentación</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/data/procedimientos_y_preguntas.xlsx
+++ b/backend/data/procedimientos_y_preguntas.xlsx
@@ -568,7 +568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -768,6 +768,166 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PEP-PRO-1141</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>¿Cuál es el primer paso del procedimiento de prueba?</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Verificar condiciones iniciales</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Iniciar operación directamente</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Contactar supervisor</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Revisar documentación</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PEP-PRO-1141</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Durante el mantenimiento, detectas una fuga en un compresor. ¿Cuál es la primera acción que debes realizar?</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Verificar la ausencia de presión en el compresor</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Retirar las tapas de inspección</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Instalar nuevos empaques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ajustar las abrazaderas</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PEP-PRO-1141</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>¿Qué herramienta se utiliza para retirar una válvula compresora?</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Herramienta extractora</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Llave fija</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Multímetro</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Calibrador de bujías</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>PEP-PRO-1141</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Si un operador omite verificar la ausencia de presión antes de cambiar válvulas, ¿cuál podría ser la consecuencia?</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Riesgo de accidente por presión residual</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Mejora en el rendimiento del compresor</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Reducción del tiempo de mantenimiento</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Aumento de presión de trabajo</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PEP-PRO-1141</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>¿Cuál es el primer paso del procedimiento de prueba?</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Verificar condiciones iniciales</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Iniciar operación directamente</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Contactar supervisor</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Revisar documentación</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
